--- a/docs/odh/shr-core-SocialHistoryObservation.xlsx
+++ b/docs/odh/shr-core-SocialHistoryObservation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="470">
   <si>
     <t>Path</t>
   </si>
@@ -225,7 +225,290 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Observation.meta.id</t>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>subjectofinformationcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SubjectOfInformationCode-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The person that the information in this resource relates to, if different than the person of record. The subject of information is described not by name but in terms of their relationship to the subject of record (e.g., wife).</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/NutritionOrder], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest]]}
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
   </si>
   <si>
     <t xml:space="preserve">string {[]} {[]}
@@ -244,383 +527,25 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Observation.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
+    <t>Observation.category.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
+    <t>Observation.category.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/NutritionOrder], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest]]}
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
-  </si>
-  <si>
-    <t>Observation.category.extension</t>
-  </si>
-  <si>
-    <t>Observation.category.coding</t>
-  </si>
-  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -796,6 +721,9 @@
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
@@ -926,6 +854,10 @@
   </si>
   <si>
     <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
   </si>
   <si>
     <t>Date/Time this was made available</t>
@@ -1120,18 +1052,6 @@
   </si>
   <si>
     <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.text</t>
   </si>
   <si>
     <t>Observation.method</t>
@@ -1711,7 +1631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP85"/>
+  <dimension ref="A1:AP75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1721,7 +1641,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1743,7 +1663,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="58.25390625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -2252,10 +2172,10 @@
         <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>69</v>
@@ -2266,7 +2186,9 @@
       <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>45</v>
@@ -2315,7 +2237,7 @@
         <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2339,7 +2261,7 @@
         <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>45</v>
@@ -2354,14 +2276,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>45</v>
@@ -2373,16 +2295,16 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2408,37 +2330,37 @@
         <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>45</v>
@@ -2456,7 +2378,7 @@
         <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>45</v>
@@ -2467,11 +2389,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2487,19 +2409,19 @@
         <v>45</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2548,13 +2470,17 @@
       <c r="AD7" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>45</v>
@@ -2569,7 +2495,7 @@
         <v>45</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>45</v>
@@ -2580,18 +2506,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>45</v>
@@ -2600,19 +2526,19 @@
         <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2661,11 +2587,15 @@
       <c r="AD8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>45</v>
       </c>
@@ -2682,7 +2612,7 @@
         <v>45</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>45</v>
@@ -2693,11 +2623,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2713,19 +2643,19 @@
         <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2774,11 +2704,15 @@
       <c r="AD9" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE9" s="2"/>
+      <c r="AE9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>45</v>
       </c>
@@ -2795,7 +2729,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2806,11 +2740,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2823,22 +2757,22 @@
         <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2864,34 +2798,36 @@
         <v>45</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AB10" s="2"/>
       <c r="AC10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE10" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2908,7 +2844,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2917,11 +2853,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>45</v>
       </c>
@@ -2930,29 +2868,25 @@
         <v>43</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -2977,34 +2911,38 @@
         <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>45</v>
       </c>
@@ -3032,7 +2970,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3043,30 +2981,30 @@
         <v>43</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
       </c>
@@ -3113,15 +3051,11 @@
       <c r="AD12" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>117</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>45</v>
       </c>
@@ -3129,19 +3063,19 @@
         <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>45</v>
@@ -3149,18 +3083,18 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>45</v>
@@ -3169,21 +3103,21 @@
         <v>45</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3207,13 +3141,13 @@
         <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>45</v>
@@ -3230,15 +3164,11 @@
       <c r="AD13" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE13" t="s" s="2">
-        <v>125</v>
-      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG13" s="2"/>
       <c r="AH13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3246,16 +3176,16 @@
         <v>45</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3266,15 +3196,15 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>56</v>
@@ -3283,24 +3213,26 @@
         <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3324,13 +3256,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3347,35 +3279,31 @@
       <c r="AD14" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE14" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="AE14" s="2"/>
       <c r="AF14" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG14" s="2"/>
       <c r="AH14" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3383,18 +3311,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>45</v>
@@ -3406,18 +3334,20 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3441,13 +3371,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3465,7 +3395,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3489,10 +3419,10 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3500,18 +3430,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
@@ -3523,17 +3453,15 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3582,13 +3510,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3606,7 +3534,7 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>45</v>
@@ -3617,11 +3545,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3634,22 +3562,22 @@
         <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3687,19 +3615,19 @@
         <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3723,7 +3651,7 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>45</v>
@@ -3734,7 +3662,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3742,7 +3670,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>44</v>
@@ -3757,17 +3685,19 @@
         <v>57</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N18" t="s" s="2">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3804,16 +3734,14 @@
         <v>45</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="AE18" s="2"/>
       <c r="AF18" t="s" s="2">
@@ -3827,19 +3755,19 @@
         <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3847,18 +3775,20 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="C19" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3870,18 +3800,16 @@
         <v>57</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3940,16 +3868,16 @@
         <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3960,7 +3888,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3968,7 +3896,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>56</v>
@@ -3977,26 +3905,22 @@
         <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -4020,13 +3944,13 @@
         <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>45</v>
@@ -4043,11 +3967,15 @@
       <c r="AD20" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE20" s="2"/>
+      <c r="AE20" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
       </c>
@@ -4055,19 +3983,19 @@
         <v>45</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -4075,18 +4003,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>45</v>
@@ -4098,20 +4026,18 @@
         <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -4135,31 +4061,31 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4183,10 +4109,10 @@
         <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4194,7 +4120,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4214,25 +4140,29 @@
         <v>45</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>69</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>45</v>
@@ -4273,15 +4203,11 @@
       <c r="AD22" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE22" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4295,10 +4221,10 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4309,18 +4235,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4329,19 +4255,19 @@
         <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4379,26 +4305,22 @@
         <v>45</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4412,10 +4334,10 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
@@ -4426,7 +4348,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4434,10 +4356,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4449,17 +4371,15 @@
         <v>57</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M24" t="s" s="2">
         <v>196</v>
       </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
         <v>197</v>
       </c>
@@ -4468,7 +4388,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>45</v>
@@ -4498,14 +4418,16 @@
         <v>45</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AE24" s="2"/>
       <c r="AF24" t="s" s="2">
@@ -4539,17 +4461,15 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B25" t="s" s="2">
         <v>201</v>
       </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>56</v>
@@ -4564,16 +4484,18 @@
         <v>57</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>202</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4638,10 +4560,10 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4652,7 +4574,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4672,19 +4594,23 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4731,15 +4657,11 @@
       <c r="AD26" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE26" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE26" s="2"/>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG26" s="2"/>
       <c r="AH26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4753,10 +4675,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4767,18 +4689,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4787,21 +4709,23 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4837,26 +4761,22 @@
         <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AE27" s="2"/>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG27" s="2"/>
       <c r="AH27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4870,10 +4790,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4884,15 +4804,15 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>56</v>
@@ -4907,26 +4827,24 @@
         <v>57</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>45</v>
@@ -4944,13 +4862,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4979,27 +4897,27 @@
         <v>45</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5007,7 +4925,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>56</v>
@@ -5022,18 +4940,20 @@
         <v>57</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5080,11 +5000,15 @@
       <c r="AD29" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE29" s="2"/>
+      <c r="AE29" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG29" s="2"/>
+      <c r="AG29" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5092,19 +5016,19 @@
         <v>45</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
@@ -5112,11 +5036,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5132,27 +5056,29 @@
         <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>45</v>
@@ -5205,19 +5131,19 @@
         <v>45</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5225,11 +5151,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5248,17 +5174,19 @@
         <v>57</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5318,19 +5246,19 @@
         <v>45</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5338,7 +5266,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5361,20 +5289,18 @@
         <v>57</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5439,13 +5365,13 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5453,7 +5379,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5464,7 +5390,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5476,19 +5402,17 @@
         <v>57</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>69</v>
+        <v>277</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5548,19 +5472,19 @@
         <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5568,15 +5492,15 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>56</v>
@@ -5591,17 +5515,19 @@
         <v>57</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="N34" t="s" s="2">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5626,13 +5552,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5655,33 +5581,33 @@
       </c>
       <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>259</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5689,10 +5615,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -5701,22 +5627,22 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5741,13 +5667,11 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5765,7 +5689,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5774,25 +5698,25 @@
         <v>56</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -5800,11 +5724,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5823,19 +5747,17 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5860,13 +5782,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5895,31 +5817,31 @@
         <v>45</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5935,22 +5857,20 @@
         <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>158</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6010,19 +5930,19 @@
         <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6030,7 +5950,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6041,7 +5961,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6050,19 +5970,19 @@
         <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6088,13 +6008,11 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6111,11 +6029,15 @@
       <c r="AD38" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE38" s="2"/>
+      <c r="AE38" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG38" s="2"/>
+      <c r="AG38" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6126,24 +6048,24 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>45</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6154,7 +6076,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6163,20 +6085,22 @@
         <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>300</v>
+        <v>147</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6201,13 +6125,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6224,11 +6148,15 @@
       <c r="AD39" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6236,19 +6164,19 @@
         <v>45</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6256,7 +6184,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6267,7 +6195,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6276,23 +6204,21 @@
         <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6339,39 +6265,43 @@
       <c r="AD40" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH40" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>319</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6394,20 +6324,18 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>181</v>
+        <v>351</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6431,11 +6359,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6453,7 +6383,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6462,44 +6392,44 @@
         <v>56</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>142</v>
+        <v>356</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6511,17 +6441,19 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>181</v>
+        <v>360</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="N42" t="s" s="2">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6546,13 +6478,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6569,39 +6501,43 @@
       <c r="AD42" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG42" s="2"/>
+      <c r="AG42" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6624,18 +6560,16 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>159</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
+        <v>160</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>342</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6682,11 +6616,15 @@
       <c r="AD43" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE43" s="2"/>
+      <c r="AE43" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG43" s="2"/>
+      <c r="AG43" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6694,16 +6632,16 @@
         <v>45</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>343</v>
+        <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6714,18 +6652,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6737,16 +6675,16 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>347</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>348</v>
+        <v>164</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>349</v>
+        <v>105</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6772,11 +6710,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6794,13 +6734,13 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>346</v>
+        <v>166</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
@@ -6812,55 +6752,57 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>353</v>
+        <v>162</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>354</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>371</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6909,13 +6851,13 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>72</v>
+        <v>373</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
@@ -6933,7 +6875,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6944,18 +6886,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -6967,17 +6909,15 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7014,28 +6954,24 @@
         <v>45</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AE46" s="2"/>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>45</v>
@@ -7047,10 +6983,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>73</v>
+        <v>380</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7061,7 +6997,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7072,7 +7008,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
@@ -7081,23 +7017,19 @@
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>99</v>
+        <v>375</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>194</v>
+        <v>382</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7150,7 +7082,7 @@
       </c>
       <c r="AG47" s="2"/>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>45</v>
@@ -7162,10 +7094,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>199</v>
+        <v>379</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>200</v>
+        <v>384</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7176,7 +7108,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7196,22 +7128,22 @@
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>241</v>
+        <v>386</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>242</v>
+        <v>387</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>243</v>
+        <v>388</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>244</v>
+        <v>389</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7236,13 +7168,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7274,13 +7206,13 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>245</v>
+        <v>393</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>246</v>
+        <v>314</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7291,7 +7223,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7302,7 +7234,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7314,19 +7246,19 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7351,13 +7283,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7374,15 +7306,11 @@
       <c r="AD49" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE49" t="s" s="2">
-        <v>359</v>
-      </c>
+      <c r="AE49" s="2"/>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG49" s="2"/>
       <c r="AH49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7393,13 +7321,13 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7410,7 +7338,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7421,7 +7349,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7433,18 +7361,18 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7491,15 +7419,11 @@
       <c r="AD50" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE50" t="s" s="2">
-        <v>368</v>
-      </c>
+      <c r="AE50" s="2"/>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG50" s="2"/>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7510,24 +7434,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>373</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>374</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>376</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7538,7 +7462,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7550,17 +7474,15 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>378</v>
+        <v>158</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7608,15 +7530,11 @@
       <c r="AD51" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE51" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="AE51" s="2"/>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG51" s="2"/>
       <c r="AH51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7627,24 +7545,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7664,22 +7582,22 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7728,7 +7646,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7740,7 +7658,7 @@
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
@@ -7749,10 +7667,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7763,7 +7681,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7786,13 +7704,13 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7843,7 +7761,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7867,7 +7785,7 @@
         <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7878,11 +7796,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7901,16 +7819,16 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7960,7 +7878,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -7984,7 +7902,7 @@
         <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -7995,11 +7913,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8018,16 +7936,16 @@
         <v>57</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8077,7 +7995,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8101,7 +8019,7 @@
         <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8112,7 +8030,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8135,22 +8053,26 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>402</v>
+        <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>45</v>
+        <v>427</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>45</v>
@@ -8168,13 +8090,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8197,7 +8119,7 @@
       </c>
       <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>45</v>
@@ -8209,10 +8131,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>406</v>
+        <v>99</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8223,7 +8145,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8231,7 +8153,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>56</v>
@@ -8246,13 +8168,13 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8308,7 +8230,7 @@
       </c>
       <c r="AG57" s="2"/>
       <c r="AH57" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>45</v>
@@ -8320,10 +8242,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8334,7 +8256,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8345,7 +8267,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8354,22 +8276,22 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>181</v>
+        <v>360</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8394,13 +8316,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8426,19 +8348,19 @@
         <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>337</v>
+        <v>442</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8449,7 +8371,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8460,7 +8382,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8472,20 +8394,16 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>422</v>
+        <v>159</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8509,13 +8427,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8532,11 +8450,15 @@
       <c r="AD59" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE59" s="2"/>
+      <c r="AE59" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG59" s="2"/>
+      <c r="AG59" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8547,13 +8469,13 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>337</v>
+        <v>162</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8564,18 +8486,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8587,18 +8509,18 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>429</v>
+        <v>102</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>430</v>
+        <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8645,11 +8567,15 @@
       <c r="AD60" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE60" s="2"/>
+      <c r="AE60" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG60" s="2"/>
+      <c r="AG60" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8666,7 +8592,7 @@
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>433</v>
+        <v>162</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8677,38 +8603,40 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>45</v>
+        <v>371</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>435</v>
+        <v>108</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8756,11 +8684,15 @@
       <c r="AD61" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE61" s="2"/>
+      <c r="AE61" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG61" s="2"/>
+      <c r="AG61" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8774,10 +8706,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>437</v>
+        <v>99</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8788,7 +8720,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8796,10 +8728,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -8811,19 +8743,17 @@
         <v>57</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>387</v>
+        <v>147</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>442</v>
+        <v>226</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8848,13 +8778,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8871,35 +8801,31 @@
       <c r="AD62" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE62" t="s" s="2">
-        <v>438</v>
-      </c>
+      <c r="AE62" s="2"/>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>443</v>
+        <v>45</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>45</v>
+        <v>449</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>444</v>
+        <v>232</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>445</v>
+        <v>233</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>45</v>
@@ -8907,7 +8833,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8927,19 +8853,23 @@
         <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>69</v>
+        <v>286</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>70</v>
+        <v>451</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -8986,15 +8916,11 @@
       <c r="AD63" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE63" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="AE63" s="2"/>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG63" s="2"/>
       <c r="AH63" t="s" s="2">
         <v>45</v>
       </c>
@@ -9005,35 +8931,35 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
@@ -9045,18 +8971,20 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9080,13 +9008,11 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9103,17 +9029,13 @@
       <c r="AD64" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE64" t="s" s="2">
-        <v>83</v>
-      </c>
+      <c r="AE64" s="2"/>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG64" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG64" s="2"/>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>45</v>
@@ -9125,10 +9047,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9139,41 +9061,43 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>147</v>
+        <v>307</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>399</v>
+        <v>308</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9197,13 +9121,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9220,15 +9144,11 @@
       <c r="AD65" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE65" t="s" s="2">
-        <v>400</v>
-      </c>
+      <c r="AE65" s="2"/>
       <c r="AF65" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG65" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG65" s="2"/>
       <c r="AH65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9239,24 +9159,24 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>142</v>
+        <v>314</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9267,7 +9187,7 @@
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9279,26 +9199,26 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>119</v>
+        <v>360</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>451</v>
+        <v>362</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>452</v>
+        <v>363</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>453</v>
+        <v>364</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>454</v>
+        <v>45</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>45</v>
@@ -9316,13 +9236,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>455</v>
+        <v>45</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>456</v>
+        <v>45</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9357,10 +9277,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>142</v>
+        <v>366</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>457</v>
+        <v>367</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9371,7 +9291,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9379,7 +9299,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>56</v>
@@ -9394,13 +9314,13 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>459</v>
+        <v>158</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>460</v>
+        <v>159</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>461</v>
+        <v>160</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9450,11 +9370,15 @@
       <c r="AD67" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE67" s="2"/>
+      <c r="AE67" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG67" s="2"/>
+      <c r="AG67" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9471,7 +9395,7 @@
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>462</v>
+        <v>162</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9482,11 +9406,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9502,23 +9426,21 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>387</v>
+        <v>102</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>464</v>
+        <v>103</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>465</v>
+        <v>164</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
@@ -9565,16 +9487,20 @@
       <c r="AD68" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE68" s="2"/>
+      <c r="AE68" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG68" s="2"/>
+      <c r="AG68" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>443</v>
+        <v>45</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
@@ -9583,10 +9509,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>468</v>
+        <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>469</v>
+        <v>162</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9597,38 +9523,40 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>45</v>
+        <v>371</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9677,13 +9605,13 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>72</v>
+        <v>373</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
@@ -9701,7 +9629,7 @@
         <v>45</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -9712,18 +9640,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -9735,17 +9663,15 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -9793,17 +9719,13 @@
       <c r="AD70" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE70" t="s" s="2">
-        <v>83</v>
-      </c>
+      <c r="AE70" s="2"/>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG70" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG70" s="2"/>
       <c r="AH70" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>45</v>
@@ -9815,10 +9737,10 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>73</v>
+        <v>380</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -9829,40 +9751,38 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>398</v>
+        <v>45</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>147</v>
+        <v>382</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -9910,17 +9830,13 @@
       <c r="AD71" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE71" t="s" s="2">
-        <v>400</v>
-      </c>
+      <c r="AE71" s="2"/>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG71" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG71" s="2"/>
       <c r="AH71" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>45</v>
@@ -9932,10 +9848,10 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>142</v>
+        <v>384</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -9946,7 +9862,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9954,7 +9870,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>56</v>
@@ -9966,20 +9882,22 @@
         <v>45</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>474</v>
+        <v>386</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="N72" t="s" s="2">
-        <v>251</v>
+        <v>389</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10004,13 +9922,13 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>252</v>
+        <v>390</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>253</v>
+        <v>391</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -10042,16 +9960,16 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>476</v>
+        <v>392</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>256</v>
+        <v>393</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>45</v>
@@ -10059,7 +9977,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10070,7 +9988,7 @@
         <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>45</v>
@@ -10079,22 +9997,22 @@
         <v>45</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>309</v>
+        <v>147</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>478</v>
+        <v>395</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>479</v>
+        <v>397</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>313</v>
+        <v>398</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10119,13 +10037,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10157,24 +10075,24 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>480</v>
+        <v>392</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10197,19 +10115,17 @@
         <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>181</v>
+        <v>402</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>482</v>
+        <v>403</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10234,11 +10150,13 @@
         <v>45</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X74" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y74" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>45</v>
@@ -10261,7 +10179,7 @@
       </c>
       <c r="AG74" s="2"/>
       <c r="AH74" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>45</v>
@@ -10273,10 +10191,10 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>327</v>
+        <v>406</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -10287,11 +10205,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10310,20 +10228,16 @@
         <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>45</v>
       </c>
@@ -10347,13 +10261,13 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
@@ -10385,1163 +10299,23 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>337</v>
+        <v>410</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE76" s="2"/>
-      <c r="AF76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG76" s="2"/>
-      <c r="AH76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE80" s="2"/>
-      <c r="AF80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG80" s="2"/>
-      <c r="AH80" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE81" s="2"/>
-      <c r="AF81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG81" s="2"/>
-      <c r="AH81" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE82" s="2"/>
-      <c r="AF82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG82" s="2"/>
-      <c r="AH82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE83" s="2"/>
-      <c r="AF83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG83" s="2"/>
-      <c r="AH83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE84" s="2"/>
-      <c r="AF84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG84" s="2"/>
-      <c r="AH84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE85" s="2"/>
-      <c r="AF85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG85" s="2"/>
-      <c r="AH85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO85" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO85">
+  <autoFilter ref="A1:AO75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11551,7 +10325,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-SocialHistoryObservation.xlsx
+++ b/docs/odh/shr-core-SocialHistoryObservation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$90</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="521">
   <si>
     <t>Path</t>
   </si>
@@ -225,13 +225,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Observation.implicitRules</t>
+    <t>Observation.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Observation.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Observation.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Observation.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Observation.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Observation.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -261,9 +410,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -332,24 +478,40 @@
     <t>Observation.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>observationpartof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ObservationPartOf-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
+    <t>A larger event of which this particular Observation is a component or step. For example, an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Annotation-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
+  </si>
+  <si>
+    <t>observationderivedfrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ObservationDerivedFrom-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -361,24 +523,60 @@
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>focalsubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-FocalSubject-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>subjectofinformationcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SubjectOfInformationCode-extension]]} {[]}
+    <t>The person or entity that the information in this resource relates to, if different than the person of record. The subject of information can be a reference or a code, the latter when the subject is described generically, for example, in terms of a relationship to the subject of record (e.g., wife).</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.id</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-FocalSubject-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
-    <t>The person that the information in this resource relates to, if different than the person of record. The subject of information is described not by name but in terms of their relationship to the subject of record (e.g., wife).</t>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>A set of codes drawn from different coding systems, representing the same concept.</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Observation.identifier</t>
@@ -413,7 +611,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/NutritionOrder], CanonicalType[http://hl7.org/fhir/StructureDefinition/ProcedureRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ReferralRequest]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-MedicationRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ServiceRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ProcedureRequest], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferralRequest]]}
 </t>
   </si>
   <si>
@@ -477,10 +675,6 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>Classification of  type of observation</t>
   </si>
   <si>
@@ -511,39 +705,10 @@
     <t>Observation.category.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.category.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Observation.category.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -723,9 +888,6 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
@@ -753,7 +915,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient]]}
 </t>
   </si>
   <si>
@@ -790,7 +952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -856,35 +1018,31 @@
     <t>Observation.issued</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t>Date/Time this was made available</t>
+  </si>
+  <si>
+    <t>The date and time this observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>Updated when the result is updated.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson]]}
 </t>
   </si>
   <si>
-    <t>Date/Time this was made available</t>
-  </si>
-  <si>
-    <t>The date and time this observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>Updated when the result is updated.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
-</t>
-  </si>
-  <si>
     <t>Who is responsible for the observation</t>
   </si>
   <si>
@@ -910,7 +1068,7 @@
   </si>
   <si>
     <t>Quantity {[]} {[]}
-CodeableConcept {[]} {[]}string {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}time {[]} {[]}dateTime {[]} {[]}Period {[]} {[]}</t>
+CodeableConcept {[]} {[]}string {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}SampledData {[]} {[]}time {[]} {[]}dateTime {[]} {[]}Period {[]} {[]}</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1039,7 +1197,7 @@
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ body-site-instance](extension-body-site-instance.html).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-BodyLocationVS</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1112,7 +1270,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
@@ -1369,7 +1527,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Observation]]}
 </t>
   </si>
   <si>
@@ -1631,7 +1789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP75"/>
+  <dimension ref="A1:AO90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1641,7 +1799,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.80078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1663,8 +1821,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.25390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.765625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.6171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -2172,10 +2330,10 @@
         <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>69</v>
@@ -2186,9 +2344,7 @@
       <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>45</v>
@@ -2237,7 +2393,7 @@
         <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2261,7 +2417,7 @@
         <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>45</v>
@@ -2276,14 +2432,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>45</v>
@@ -2295,16 +2451,16 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2330,37 +2486,37 @@
         <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>45</v>
@@ -2378,7 +2534,7 @@
         <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>45</v>
@@ -2389,11 +2545,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2414,15 +2572,11 @@
       <c r="J7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>88</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>45</v>
@@ -2471,16 +2625,16 @@
         <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>45</v>
@@ -2495,7 +2649,7 @@
         <v>45</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>45</v>
@@ -2506,18 +2660,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>45</v>
@@ -2526,19 +2680,19 @@
         <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2587,15 +2741,11 @@
       <c r="AD8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>98</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>45</v>
       </c>
@@ -2612,7 +2762,7 @@
         <v>45</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>45</v>
@@ -2623,18 +2773,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>45</v>
@@ -2643,19 +2793,19 @@
         <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2704,15 +2854,11 @@
       <c r="AD9" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE9" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>45</v>
       </c>
@@ -2729,7 +2875,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2740,11 +2886,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2757,22 +2903,22 @@
         <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2810,24 +2956,22 @@
         <v>45</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AB10" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2844,7 +2988,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2853,13 +2997,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>45</v>
       </c>
@@ -2868,25 +3010,29 @@
         <v>43</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -2911,13 +3057,13 @@
         <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>45</v>
@@ -2934,15 +3080,11 @@
       <c r="AD11" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>45</v>
       </c>
@@ -2970,7 +3112,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2993,18 +3135,18 @@
         <v>57</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>45</v>
       </c>
@@ -3028,13 +3170,13 @@
         <v>45</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>45</v>
@@ -3063,19 +3205,19 @@
         <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>45</v>
@@ -3083,41 +3225,41 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3164,11 +3306,15 @@
       <c r="AD13" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG13" s="2"/>
+      <c r="AG13" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3176,16 +3322,16 @@
         <v>45</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3196,7 +3342,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3204,7 +3350,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>56</v>
@@ -3213,26 +3359,24 @@
         <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3256,13 +3400,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3279,11 +3423,15 @@
       <c r="AD14" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE14" s="2"/>
+      <c r="AE14" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG14" s="2"/>
+      <c r="AG14" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3291,19 +3439,19 @@
         <v>45</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3311,11 +3459,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3334,20 +3482,18 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3371,13 +3517,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3395,16 +3541,16 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>45</v>
@@ -3419,10 +3565,10 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3430,18 +3576,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
@@ -3453,15 +3599,17 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3510,13 +3658,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3534,7 +3682,7 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>45</v>
@@ -3545,11 +3693,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3568,16 +3716,16 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3615,19 +3763,17 @@
         <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3651,7 +3797,7 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>45</v>
@@ -3662,15 +3808,17 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>44</v>
@@ -3682,23 +3830,17 @@
         <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3734,20 +3876,26 @@
         <v>45</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AE18" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG18" s="2"/>
+      <c r="AG18" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3761,10 +3909,10 @@
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3775,20 +3923,20 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3797,16 +3945,14 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3856,11 +4002,15 @@
       <c r="AD19" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE19" s="2"/>
+      <c r="AE19" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG19" s="2"/>
+      <c r="AG19" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3888,9 +4038,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3899,7 +4051,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -3911,13 +4063,11 @@
         <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3968,13 +4118,13 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
@@ -3992,7 +4142,7 @@
         <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4003,11 +4153,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4020,22 +4170,22 @@
         <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4073,19 +4223,17 @@
         <v>45</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4109,20 +4257,22 @@
         <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AN21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4134,35 +4284,29 @@
         <v>56</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="L22" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>45</v>
@@ -4203,11 +4347,15 @@
       <c r="AD22" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE22" s="2"/>
+      <c r="AE22" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG22" s="2"/>
+      <c r="AG22" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4221,10 +4369,10 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4235,7 +4383,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4255,20 +4403,18 @@
         <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4316,11 +4462,15 @@
       <c r="AD23" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE23" s="2"/>
+      <c r="AE23" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG23" s="2"/>
+      <c r="AG23" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4334,10 +4484,10 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
@@ -4348,7 +4498,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4359,7 +4509,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4368,27 +4518,25 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>45</v>
@@ -4429,11 +4577,15 @@
       <c r="AD24" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE24" s="2"/>
+      <c r="AE24" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG24" s="2"/>
+      <c r="AG24" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4447,10 +4599,10 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4461,7 +4613,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4469,7 +4621,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>56</v>
@@ -4481,27 +4633,25 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>45</v>
@@ -4542,11 +4692,15 @@
       <c r="AD25" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE25" s="2"/>
+      <c r="AE25" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="AF25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG25" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4560,10 +4714,10 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4574,7 +4728,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4582,7 +4736,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>56</v>
@@ -4594,23 +4748,19 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4657,11 +4807,15 @@
       <c r="AD26" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE26" s="2"/>
+      <c r="AE26" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG26" s="2"/>
+      <c r="AG26" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4675,10 +4829,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4689,7 +4843,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4700,7 +4854,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4712,19 +4866,17 @@
         <v>57</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4784,19 +4936,19 @@
         <v>45</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4804,18 +4956,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
@@ -4827,17 +4979,17 @@
         <v>57</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4862,13 +5014,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4897,27 +5049,27 @@
         <v>45</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4934,25 +5086,25 @@
         <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4977,13 +5129,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -5000,15 +5152,11 @@
       <c r="AD29" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE29" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="AE29" s="2"/>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG29" s="2"/>
       <c r="AH29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5016,19 +5164,19 @@
         <v>45</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
@@ -5036,11 +5184,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5059,19 +5207,19 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5096,13 +5244,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5119,11 +5267,15 @@
       <c r="AD30" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE30" s="2"/>
+      <c r="AE30" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG30" s="2"/>
+      <c r="AG30" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5131,19 +5283,19 @@
         <v>45</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5151,11 +5303,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5171,23 +5323,19 @@
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5234,11 +5382,15 @@
       <c r="AD31" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE31" s="2"/>
+      <c r="AE31" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG31" s="2"/>
+      <c r="AG31" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5246,19 +5398,19 @@
         <v>45</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5266,18 +5418,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5286,19 +5438,19 @@
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5336,22 +5488,26 @@
         <v>45</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE32" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG32" s="2"/>
+      <c r="AG32" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5365,13 +5521,13 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>274</v>
+        <v>73</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5379,7 +5535,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5387,7 +5543,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>44</v>
@@ -5402,17 +5558,19 @@
         <v>57</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>277</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N33" t="s" s="2">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5449,16 +5607,14 @@
         <v>45</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AE33" s="2"/>
       <c r="AF33" t="s" s="2">
@@ -5472,19 +5628,19 @@
         <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5492,15 +5648,17 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>56</v>
@@ -5515,20 +5673,16 @@
         <v>57</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>286</v>
+        <v>102</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5581,33 +5735,33 @@
       </c>
       <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5618,7 +5772,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -5630,20 +5784,16 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>70</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5667,11 +5817,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5689,7 +5841,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>297</v>
+        <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5698,22 +5850,22 @@
         <v>56</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>304</v>
+        <v>73</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5724,18 +5876,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>232</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>306</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
@@ -5747,18 +5899,18 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5782,34 +5934,38 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE36" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG36" s="2"/>
+      <c r="AG36" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5820,24 +5976,24 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>314</v>
+        <v>73</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>233</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5857,27 +6013,29 @@
         <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>317</v>
+        <v>234</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>45</v>
@@ -5930,16 +6088,16 @@
         <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>322</v>
+        <v>240</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5950,7 +6108,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5961,7 +6119,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5970,19 +6128,19 @@
         <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>324</v>
+        <v>242</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>326</v>
+        <v>244</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6008,11 +6166,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6029,15 +6189,11 @@
       <c r="AD38" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE38" t="s" s="2">
-        <v>323</v>
-      </c>
+      <c r="AE38" s="2"/>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG38" s="2"/>
       <c r="AH38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6048,24 +6204,24 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>329</v>
+        <v>245</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>330</v>
+        <v>246</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6076,7 +6232,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6085,29 +6241,27 @@
         <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>45</v>
@@ -6125,13 +6279,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6148,15 +6302,11 @@
       <c r="AD39" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE39" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6170,10 +6320,10 @@
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>339</v>
+        <v>252</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>340</v>
+        <v>253</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6184,7 +6334,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>254</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6195,7 +6345,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6204,21 +6354,21 @@
         <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>342</v>
+        <v>69</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6265,15 +6415,11 @@
       <c r="AD40" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>341</v>
-      </c>
+      <c r="AE40" s="2"/>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6284,24 +6430,24 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>347</v>
+        <v>258</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>348</v>
+        <v>259</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6312,7 +6458,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6321,21 +6467,23 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>351</v>
+        <v>261</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>353</v>
+        <v>263</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6382,15 +6530,11 @@
       <c r="AD41" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>350</v>
-      </c>
+      <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6401,24 +6545,24 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>355</v>
+        <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>356</v>
+        <v>266</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>357</v>
+        <v>267</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>268</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6429,7 +6573,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6438,22 +6582,22 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>360</v>
+        <v>69</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>269</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>270</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6501,20 +6645,16 @@
       <c r="AD42" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE42" t="s" s="2">
-        <v>359</v>
-      </c>
+      <c r="AE42" s="2"/>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG42" s="2"/>
       <c r="AH42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>45</v>
@@ -6523,10 +6663,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>366</v>
+        <v>273</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>367</v>
+        <v>274</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6537,15 +6677,15 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>275</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>56</v>
@@ -6557,19 +6697,21 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>159</v>
+        <v>277</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6593,13 +6735,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6616,15 +6758,11 @@
       <c r="AD43" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE43" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="AE43" s="2"/>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="AG43" s="2"/>
       <c r="AH43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6632,38 +6770,38 @@
         <v>45</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6672,21 +6810,23 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>102</v>
+        <v>289</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6734,13 +6874,13 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>166</v>
+        <v>288</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
@@ -6749,19 +6889,19 @@
         <v>45</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -6769,41 +6909,43 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>301</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6850,15 +6992,11 @@
       <c r="AD45" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE45" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6866,19 +7004,19 @@
         <v>45</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>99</v>
+        <v>307</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>45</v>
@@ -6886,11 +7024,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>309</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6906,19 +7044,23 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6971,25 +7113,25 @@
       </c>
       <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>45</v>
@@ -6997,7 +7139,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>320</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7017,18 +7159,20 @@
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>375</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>382</v>
+        <v>321</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7082,7 +7226,7 @@
       </c>
       <c r="AG47" s="2"/>
       <c r="AH47" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>45</v>
@@ -7094,13 +7238,13 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>384</v>
+        <v>325</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7108,7 +7252,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>327</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7119,7 +7263,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
@@ -7128,22 +7272,20 @@
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>147</v>
+        <v>328</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7168,13 +7310,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7203,19 +7345,19 @@
         <v>45</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>45</v>
@@ -7223,7 +7365,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7234,7 +7376,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7243,22 +7385,22 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>147</v>
+        <v>337</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7283,13 +7425,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7312,33 +7454,33 @@
       </c>
       <c r="AG49" s="2"/>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7349,7 +7491,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7361,17 +7503,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>402</v>
+        <v>175</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="N50" t="s" s="2">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7396,13 +7540,11 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7419,28 +7561,32 @@
       <c r="AD50" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7451,11 +7597,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7474,16 +7620,18 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7507,13 +7655,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7545,24 +7693,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>45</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7573,7 +7721,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7582,22 +7730,20 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>360</v>
+        <v>69</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7645,32 +7791,28 @@
       <c r="AD52" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE52" t="s" s="2">
-        <v>411</v>
-      </c>
+      <c r="AE52" s="2"/>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG52" s="2"/>
       <c r="AH52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>416</v>
+        <v>45</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>45</v>
+        <v>371</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7681,7 +7823,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7692,7 +7834,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7704,15 +7846,17 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>159</v>
+        <v>375</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7737,13 +7881,11 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -7761,7 +7903,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>161</v>
+        <v>374</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7779,35 +7921,35 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>162</v>
+        <v>381</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>45</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -7819,18 +7961,20 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>103</v>
+        <v>384</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>164</v>
+        <v>385</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7854,13 +7998,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -7878,13 +8022,13 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>166</v>
+        <v>383</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
@@ -7899,10 +8043,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>162</v>
+        <v>391</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -7913,39 +8057,39 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>102</v>
+        <v>393</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>108</v>
+        <v>394</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>105</v>
+        <v>396</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7994,15 +8138,11 @@
       <c r="AD55" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE55" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="AE55" s="2"/>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG55" s="2"/>
       <c r="AH55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8013,24 +8153,24 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>45</v>
+        <v>397</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>99</v>
+        <v>399</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8041,7 +8181,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8053,26 +8193,24 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>45</v>
@@ -8090,13 +8228,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>428</v>
+        <v>45</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>429</v>
+        <v>45</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8113,11 +8251,15 @@
       <c r="AD56" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE56" s="2"/>
+      <c r="AE56" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG56" s="2"/>
+      <c r="AG56" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8128,24 +8270,24 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>45</v>
+        <v>406</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>99</v>
+        <v>407</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>45</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8153,10 +8295,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8168,16 +8310,20 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8224,16 +8370,20 @@
       <c r="AD57" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE57" s="2"/>
+      <c r="AE57" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG57" s="2"/>
+      <c r="AG57" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>45</v>
@@ -8242,10 +8392,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8256,7 +8406,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8267,7 +8417,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8276,23 +8426,19 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>360</v>
+        <v>69</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>437</v>
+        <v>70</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8339,16 +8485,20 @@
       <c r="AD58" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE58" s="2"/>
+      <c r="AE58" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG58" s="2"/>
+      <c r="AG58" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>416</v>
+        <v>45</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
@@ -8357,10 +8507,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>441</v>
+        <v>45</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>442</v>
+        <v>73</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8371,18 +8521,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8394,15 +8544,17 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8451,13 +8603,13 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -8475,7 +8627,7 @@
         <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8486,11 +8638,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>101</v>
+        <v>422</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8503,22 +8655,22 @@
         <v>45</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>164</v>
+        <v>423</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8568,7 +8720,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>166</v>
+        <v>424</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8592,7 +8744,7 @@
         <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8603,40 +8755,38 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>102</v>
+        <v>426</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>108</v>
+        <v>427</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8684,17 +8834,13 @@
       <c r="AD61" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE61" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="AE61" s="2"/>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>45</v>
@@ -8706,10 +8852,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>45</v>
+        <v>430</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>99</v>
+        <v>431</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8720,7 +8866,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8728,7 +8874,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>56</v>
@@ -8740,21 +8886,19 @@
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>147</v>
+        <v>426</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8778,13 +8922,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8807,7 +8951,7 @@
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>45</v>
@@ -8816,16 +8960,16 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>449</v>
+        <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>232</v>
+        <v>430</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>233</v>
+        <v>435</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>45</v>
@@ -8833,7 +8977,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8853,22 +8997,22 @@
         <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>288</v>
+        <v>438</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -8893,13 +9037,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>45</v>
+        <v>441</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -8931,24 +9075,24 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>294</v>
+        <v>444</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>295</v>
+        <v>365</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8959,7 +9103,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
@@ -8971,19 +9115,19 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>299</v>
+        <v>447</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>301</v>
+        <v>449</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9008,11 +9152,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X64" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="Y64" t="s" s="2">
-        <v>302</v>
+        <v>451</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9035,7 +9181,7 @@
       </c>
       <c r="AG64" s="2"/>
       <c r="AH64" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>45</v>
@@ -9044,13 +9190,13 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>99</v>
+        <v>444</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9061,11 +9207,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9084,19 +9230,17 @@
         <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>147</v>
+        <v>453</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>307</v>
+        <v>454</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>309</v>
+        <v>456</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9121,13 +9265,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9159,24 +9303,24 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>314</v>
+        <v>457</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9187,7 +9331,7 @@
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9199,20 +9343,16 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>360</v>
+        <v>69</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9277,10 +9417,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>367</v>
+        <v>461</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9291,7 +9431,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9302,7 +9442,7 @@
         <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9311,19 +9451,23 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>158</v>
+        <v>411</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>159</v>
+        <v>463</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9371,19 +9515,19 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>161</v>
+        <v>462</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>45</v>
+        <v>467</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>45</v>
@@ -9392,10 +9536,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>45</v>
+        <v>468</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>162</v>
+        <v>469</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9406,18 +9550,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9429,17 +9573,15 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9488,13 +9630,13 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
@@ -9512,7 +9654,7 @@
         <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9523,11 +9665,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>371</v>
+        <v>75</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9540,22 +9682,22 @@
         <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9605,7 +9747,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>373</v>
+        <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9629,7 +9771,7 @@
         <v>45</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -9640,38 +9782,40 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>45</v>
+        <v>422</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>376</v>
+        <v>159</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -9719,13 +9863,17 @@
       <c r="AD70" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE70" s="2"/>
+      <c r="AE70" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG70" s="2"/>
+      <c r="AG70" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH70" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>45</v>
@@ -9737,10 +9885,10 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>380</v>
+        <v>145</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -9751,7 +9899,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9774,22 +9922,26 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>375</v>
+        <v>122</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>382</v>
+        <v>474</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>45</v>
+        <v>478</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>45</v>
@@ -9807,13 +9959,13 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>45</v>
+        <v>479</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>45</v>
+        <v>480</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -9836,7 +9988,7 @@
       </c>
       <c r="AG71" s="2"/>
       <c r="AH71" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>45</v>
@@ -9848,10 +10000,10 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>379</v>
+        <v>145</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>384</v>
+        <v>481</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -9862,7 +10014,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9870,7 +10022,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>56</v>
@@ -9885,20 +10037,16 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>147</v>
+        <v>483</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>386</v>
+        <v>484</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
@@ -9922,13 +10070,13 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -9960,13 +10108,13 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>393</v>
+        <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>314</v>
+        <v>486</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -9977,7 +10125,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9997,22 +10145,22 @@
         <v>45</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>147</v>
+        <v>411</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>395</v>
+        <v>488</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>396</v>
+        <v>489</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>397</v>
+        <v>490</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>398</v>
+        <v>491</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10037,13 +10185,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>399</v>
+        <v>45</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10069,19 +10217,19 @@
         <v>45</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>45</v>
+        <v>467</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>393</v>
+        <v>492</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>314</v>
+        <v>493</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -10092,7 +10240,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10115,18 +10263,16 @@
         <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>402</v>
+        <v>69</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>403</v>
+        <v>70</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>404</v>
+        <v>71</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>405</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>45</v>
       </c>
@@ -10173,11 +10319,15 @@
       <c r="AD74" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE74" s="2"/>
+      <c r="AE74" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG74" s="2"/>
+      <c r="AG74" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="AH74" t="s" s="2">
         <v>45</v>
       </c>
@@ -10194,7 +10344,7 @@
         <v>45</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>406</v>
+        <v>73</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -10205,18 +10355,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>45</v>
@@ -10228,15 +10378,17 @@
         <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10284,11 +10436,15 @@
       <c r="AD75" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE75" s="2"/>
+      <c r="AE75" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG75" s="2"/>
+      <c r="AG75" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH75" t="s" s="2">
         <v>45</v>
       </c>
@@ -10302,20 +10458,1733 @@
         <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>410</v>
+        <v>73</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO75" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" s="2"/>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" s="2"/>
+      <c r="AH77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE78" s="2"/>
+      <c r="AF78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG78" s="2"/>
+      <c r="AH78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X79" s="2"/>
+      <c r="Y79" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE79" s="2"/>
+      <c r="AF79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG79" s="2"/>
+      <c r="AH79" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE80" s="2"/>
+      <c r="AF80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG80" s="2"/>
+      <c r="AH80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE81" s="2"/>
+      <c r="AF81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG81" s="2"/>
+      <c r="AH81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE85" s="2"/>
+      <c r="AF85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG85" s="2"/>
+      <c r="AH85" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE86" s="2"/>
+      <c r="AF86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG86" s="2"/>
+      <c r="AH86" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE87" s="2"/>
+      <c r="AF87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG87" s="2"/>
+      <c r="AH87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE88" s="2"/>
+      <c r="AF88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG88" s="2"/>
+      <c r="AH88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE89" s="2"/>
+      <c r="AF89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG89" s="2"/>
+      <c r="AH89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE90" s="2"/>
+      <c r="AF90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG90" s="2"/>
+      <c r="AH90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO90" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO75">
+  <autoFilter ref="A1:AO90">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10325,7 +12194,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI89">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
